--- a/Results/HW4_new.xlsx
+++ b/Results/HW4_new.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CounterTests" sheetId="2" r:id="rId1"/>
     <sheet name="PacketTests" sheetId="1" r:id="rId2"/>
-    <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
+    <sheet name="PacketTests-new" sheetId="4" r:id="rId3"/>
+    <sheet name="גיליון3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -88,8 +89,76 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Run ParallelPacket and SerialPacket on
+the uniformly distributed packets with n 2 f1; 4; 10g, W 2 f1000; 6000g, S 2
+fLockFree; RandomQueue; LastQueueg and L 2 fTASLock;BackoffLockg. For
+each W (i.e., two graphs), make a plot of speedup (relative to SerialPacket with the same pa-
+rameters) for each hS;Li combination on the Y -axis vs. n on the X-axis.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C96" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Run ParallelPacket and SerialPacket on
+the exponential distributed packets with n 2 f1; 4; 10g, W 2 f1000; 6000g, S 2
+fLockFree; RandomQueue; LastQueueg and L 2 fTASLock;BackoffLockg. For
+each W (i.e., two graphs), make a plot of speedup (relative to SerialPacket with the same pa-
+rameters) for each hS;Li combination on the Y -axis vs. n on the X-axis.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="36">
   <si>
     <t>n:</t>
   </si>
@@ -983,6 +1052,2101 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup with Uniform Load ,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> W = 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$56:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$57:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.860566448801743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.217864923747276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.930283224400871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$70:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$71:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.812636165577342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.311546840958606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.374727668845316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$63:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$64:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.773420479302832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.174291938997821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.636165577342048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backoff - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$78:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$79:$F$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.864923747276688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.220043572984749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.217864923747276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Backoff - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$85:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$86:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.779956427015251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.734204793028322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.92156862745098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Backoff - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$92:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$93:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.775599128540305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.904139433551198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.047930283224401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2133863288"/>
+        <c:axId val="2124022600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2133863288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124022600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124022600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>SpeedUp = Parallel/Serial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133863288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup with Exponential Load ,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> W = 6000</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$104:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$105:$L$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.12987012987013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.454545454545454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$118:$L$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$119:$L$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87012987012987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.48051948051948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$111:$L$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$112:$L$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.883116883116883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.467532467532467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.597402597402597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backoff - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$126:$L$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$127:$L$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.883116883116883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.233766233766234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.38961038961039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Backoff - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$133:$L$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$134:$L$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.896103896103896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.168831168831169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.467532467532467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Backoff - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$140:$L$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$141:$L$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.155844155844155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.402597402597402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2113861272"/>
+        <c:axId val="-2113176504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2113861272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2113176504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2113176504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>SpeedUp = Parallel/Serial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2113861272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup with Exponential Load ,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> W = 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$104:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$105:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.324444444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.671111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$111:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$119:$F$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.793333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.964444444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.262222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$111:$L$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$112:$F$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.755555555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.602222222222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backoff - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$126:$L$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$127:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.88470066518847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.006651884700665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.811529933481153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Backoff - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$133:$L$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$134:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.813747228381375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.119733924611973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Backoff - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$140:$L$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$141:$F$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.800443458980044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.953436807095344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35920177383592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111299736"/>
+        <c:axId val="-2111668888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2111299736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111668888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2111668888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>SpeedUp = Parallel/Serial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111299736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -4666,6 +6830,1330 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-2113482584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Idle Lock Overhead</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.716417910447761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.811379579111457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.848670756646217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Backoff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.755918827508455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.670714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.863543788187373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CLH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.660267597440372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.561247216035635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.773584905660377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MCS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$D$45:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.756083757781551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.592203898050974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.801652892561983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111783368"/>
+        <c:axId val="2127204600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2111783368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127204600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2127204600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>SpeedUp=HomeQueue/LockFree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111783368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup with Uniform Load ,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> W = 6000</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$56:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$57:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.986666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.493333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$63:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$64:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.946666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.893333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$70:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$71:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.986666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.893333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.586666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backoff - LockFree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$78:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$79:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.906666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.426666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Backoff - RandomQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$85:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$86:$L$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.933333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Backoff - LastQueue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$92:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PacketTests-new'!$J$93:$L$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.946666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.186666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140825432"/>
+        <c:axId val="2141067112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140825432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141067112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2141067112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>SpeedUp = Parallel/Serial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140825432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7198,6 +10686,171 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>73957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="תרשים 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="תרשים 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="תרשים 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
@@ -7487,8 +11140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7992,9 +11645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R141"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10578,6 +14231,2595 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:R141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18">
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="3:18">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1809</v>
+      </c>
+      <c r="E9">
+        <v>1283</v>
+      </c>
+      <c r="F9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1296</v>
+      </c>
+      <c r="E12">
+        <v>1041</v>
+      </c>
+      <c r="F12">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" ht="14.25" customHeight="1">
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <f>D12/D9</f>
+        <v>0.71641791044776115</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:F15" si="0">E12/E9</f>
+        <v>0.81137957911145753</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.84867075664621672</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1774</v>
+      </c>
+      <c r="E19">
+        <v>1400</v>
+      </c>
+      <c r="F19">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1341</v>
+      </c>
+      <c r="E22">
+        <v>939</v>
+      </c>
+      <c r="F22">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <f>D22/D19</f>
+        <v>0.75591882750845552</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:F25" si="1">E22/E19</f>
+        <v>0.67071428571428571</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.86354378818737276</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3">
+        <v>200</v>
+      </c>
+      <c r="F28" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>1719</v>
+      </c>
+      <c r="E29">
+        <v>1347</v>
+      </c>
+      <c r="F29">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>200</v>
+      </c>
+      <c r="F31" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1135</v>
+      </c>
+      <c r="E32">
+        <v>756</v>
+      </c>
+      <c r="F32">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>200</v>
+      </c>
+      <c r="F34" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <f>D32/D29</f>
+        <v>0.66026759744037233</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:F35" si="2">E32/E29</f>
+        <v>0.56124721603563477</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.77358490566037741</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3">
+        <v>200</v>
+      </c>
+      <c r="F38" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>1767</v>
+      </c>
+      <c r="E39">
+        <v>1334</v>
+      </c>
+      <c r="F39">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>1336</v>
+      </c>
+      <c r="E42">
+        <v>790</v>
+      </c>
+      <c r="F42">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <f>D42/D39</f>
+        <v>0.75608375778155068</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:F45" si="3">E42/E39</f>
+        <v>0.59220389805097451</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0.80165289256198347</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="I49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="I50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>459</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>395</v>
+      </c>
+      <c r="E55">
+        <v>1477</v>
+      </c>
+      <c r="F55">
+        <v>1345</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>74</v>
+      </c>
+      <c r="K55">
+        <v>294</v>
+      </c>
+      <c r="L55">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3">
+        <v>10</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>4</v>
+      </c>
+      <c r="L56" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <f>D55/$D$53</f>
+        <v>0.86056644880174293</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:F57" si="4">E55/$D$53</f>
+        <v>3.2178649237472765</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>2.9302832244008714</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <f>J55/$J$53</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:L57" si="5">K55/$J$53</f>
+        <v>3.92</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>9.4933333333333341</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="I58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>459</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <v>4</v>
+      </c>
+      <c r="L61" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>355</v>
+      </c>
+      <c r="E62">
+        <v>998</v>
+      </c>
+      <c r="F62">
+        <v>751</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>71</v>
+      </c>
+      <c r="K62">
+        <v>292</v>
+      </c>
+      <c r="L62">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>4</v>
+      </c>
+      <c r="L63" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <f>D62/$D$60</f>
+        <v>0.7734204793028322</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:F64" si="6">E62/$D$60</f>
+        <v>2.1742919389978215</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>1.636165577342048</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64">
+        <f>J62/$J$60</f>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ref="K64:L64" si="7">K62/$J$60</f>
+        <v>3.8933333333333335</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="I65" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>459</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>4</v>
+      </c>
+      <c r="L68" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>373</v>
+      </c>
+      <c r="E69">
+        <v>1061</v>
+      </c>
+      <c r="F69">
+        <v>631</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69">
+        <v>74</v>
+      </c>
+      <c r="K69">
+        <v>292</v>
+      </c>
+      <c r="L69">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <f>D69/$D$67</f>
+        <v>0.81263616557734208</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:F71" si="8">E69/$D$67</f>
+        <v>2.3115468409586057</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>1.3747276688453158</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <f>J69/$J$67</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ref="K71:L71" si="9">K69/$J$67</f>
+        <v>3.8933333333333335</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>9.586666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="I72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="I73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>459</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>397</v>
+      </c>
+      <c r="E77">
+        <v>1478</v>
+      </c>
+      <c r="F77">
+        <v>1477</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>75</v>
+      </c>
+      <c r="K77">
+        <v>293</v>
+      </c>
+      <c r="L77">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="C78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3">
+        <v>10</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <v>4</v>
+      </c>
+      <c r="L78" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13">
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <f>D77/$D$75</f>
+        <v>0.86492374727668841</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:F79" si="10">E77/$D$75</f>
+        <v>3.2200435729847494</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="10"/>
+        <v>3.2178649237472765</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79">
+        <f>J77/$J$75</f>
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:L79" si="11">K77/$J$75</f>
+        <v>3.9066666666666667</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>9.4266666666666659</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="C80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="I80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+    </row>
+    <row r="81" spans="3:13">
+      <c r="C81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82">
+        <v>459</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="C83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>358</v>
+      </c>
+      <c r="E84">
+        <v>796</v>
+      </c>
+      <c r="F84">
+        <v>1341</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84">
+        <v>70</v>
+      </c>
+      <c r="K84">
+        <v>282</v>
+      </c>
+      <c r="L84">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4</v>
+      </c>
+      <c r="F85" s="3">
+        <v>10</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3">
+        <v>4</v>
+      </c>
+      <c r="L85" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86">
+        <f>D84/$D$82</f>
+        <v>0.77995642701525059</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86:F86" si="12">E84/$D$82</f>
+        <v>1.7342047930283224</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="12"/>
+        <v>2.9215686274509802</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86">
+        <f>J84/$J$82</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:L86" si="13">K84/$J$82</f>
+        <v>3.76</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="13"/>
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13">
+      <c r="C87" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="I87" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="C88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13">
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89">
+        <v>459</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13">
+      <c r="C90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>4</v>
+      </c>
+      <c r="F90" s="3">
+        <v>10</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>4</v>
+      </c>
+      <c r="L90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13">
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>356</v>
+      </c>
+      <c r="E91">
+        <v>874</v>
+      </c>
+      <c r="F91">
+        <v>1399</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91">
+        <v>71</v>
+      </c>
+      <c r="K91">
+        <v>285</v>
+      </c>
+      <c r="L91">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13">
+      <c r="C92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4</v>
+      </c>
+      <c r="F92" s="3">
+        <v>10</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3">
+        <v>4</v>
+      </c>
+      <c r="L92" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13">
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <f>D91/$D$89</f>
+        <v>0.77559912854030499</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93:F93" si="14">E91/$D$89</f>
+        <v>1.9041394335511983</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="14"/>
+        <v>3.0479302832244008</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93">
+        <f>J91/$J$89</f>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="K93">
+        <f>K91/$J$89</f>
+        <v>3.8</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ref="L93" si="15">L91/$J$89</f>
+        <v>9.1866666666666674</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13">
+      <c r="C96" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+    </row>
+    <row r="97" spans="3:13">
+      <c r="C97" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="I97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+    </row>
+    <row r="98" spans="3:13">
+      <c r="C98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="I98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="C99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="I99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+    </row>
+    <row r="100" spans="3:13">
+      <c r="C100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13">
+      <c r="C101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101">
+        <v>450</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13">
+      <c r="C102" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>64</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13">
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103">
+        <v>400</v>
+      </c>
+      <c r="E103">
+        <v>1496</v>
+      </c>
+      <c r="F103">
+        <v>302</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103">
+        <v>70</v>
+      </c>
+      <c r="K103">
+        <v>318</v>
+      </c>
+      <c r="L103">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13">
+      <c r="C104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>8</v>
+      </c>
+      <c r="F104" s="3">
+        <v>64</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3">
+        <v>8</v>
+      </c>
+      <c r="L104" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13">
+      <c r="C105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <f>D103/$D$101</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105:F105" si="16">E103/$D$101</f>
+        <v>3.3244444444444445</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="16"/>
+        <v>0.6711111111111111</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105">
+        <f>J103/$J$101</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K105">
+        <f t="shared" ref="K105:L105" si="17">K103/$J$101</f>
+        <v>4.1298701298701301</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="17"/>
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13">
+      <c r="C106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="I106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+    </row>
+    <row r="107" spans="3:13">
+      <c r="C107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13">
+      <c r="C108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>450</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13">
+      <c r="C109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
+        <v>8</v>
+      </c>
+      <c r="F109" s="3">
+        <v>64</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3">
+        <v>8</v>
+      </c>
+      <c r="L109" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13">
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>340</v>
+      </c>
+      <c r="E110">
+        <v>721</v>
+      </c>
+      <c r="F110">
+        <v>375</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110">
+        <v>68</v>
+      </c>
+      <c r="K110">
+        <v>575</v>
+      </c>
+      <c r="L110">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13">
+      <c r="C111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>8</v>
+      </c>
+      <c r="F111" s="3">
+        <v>64</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3">
+        <v>8</v>
+      </c>
+      <c r="L111" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13">
+      <c r="C112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112">
+        <f>D110/$D$108</f>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112:F112" si="18">E110/$D$108</f>
+        <v>1.6022222222222222</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="18"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112">
+        <f>J110/$J$108</f>
+        <v>0.88311688311688308</v>
+      </c>
+      <c r="K112">
+        <f t="shared" ref="K112:L112" si="19">K110/$J$108</f>
+        <v>7.4675324675324672</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="19"/>
+        <v>5.5974025974025974</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13">
+      <c r="C113" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="I113" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+    </row>
+    <row r="114" spans="3:13">
+      <c r="C114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13">
+      <c r="C115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115">
+        <v>450</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13">
+      <c r="C116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>8</v>
+      </c>
+      <c r="F116" s="3">
+        <v>64</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>1</v>
+      </c>
+      <c r="K116" s="3">
+        <v>8</v>
+      </c>
+      <c r="L116" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13">
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>357</v>
+      </c>
+      <c r="E117">
+        <v>884</v>
+      </c>
+      <c r="F117">
+        <v>118</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117">
+        <v>67</v>
+      </c>
+      <c r="K117">
+        <v>576</v>
+      </c>
+      <c r="L117">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13">
+      <c r="C118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>8</v>
+      </c>
+      <c r="F118" s="3">
+        <v>64</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>1</v>
+      </c>
+      <c r="K118" s="3">
+        <v>8</v>
+      </c>
+      <c r="L118" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13">
+      <c r="C119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119">
+        <f>D117/$D$115</f>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ref="E119:F119" si="20">E117/$D$115</f>
+        <v>1.9644444444444444</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="20"/>
+        <v>0.26222222222222225</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119">
+        <f>J117/$J$115</f>
+        <v>0.87012987012987009</v>
+      </c>
+      <c r="K119">
+        <f t="shared" ref="K119:L119" si="21">K117/$J$115</f>
+        <v>7.4805194805194803</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="21"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13">
+      <c r="C120" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="I120" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+    </row>
+    <row r="121" spans="3:13">
+      <c r="C121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="I121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+    </row>
+    <row r="122" spans="3:13">
+      <c r="C122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13">
+      <c r="C123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123">
+        <v>451</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J123">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13">
+      <c r="C124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>8</v>
+      </c>
+      <c r="F124" s="3">
+        <v>64</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J124" s="3">
+        <v>1</v>
+      </c>
+      <c r="K124" s="3">
+        <v>8</v>
+      </c>
+      <c r="L124" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13">
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>399</v>
+      </c>
+      <c r="E125">
+        <v>1356</v>
+      </c>
+      <c r="F125">
+        <v>366</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125">
+        <v>68</v>
+      </c>
+      <c r="K125">
+        <v>326</v>
+      </c>
+      <c r="L125">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13">
+      <c r="C126" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>8</v>
+      </c>
+      <c r="F126" s="3">
+        <v>64</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
+        <v>1</v>
+      </c>
+      <c r="K126" s="3">
+        <v>8</v>
+      </c>
+      <c r="L126" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13">
+      <c r="C127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <f>D125/$D$123</f>
+        <v>0.88470066518847001</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ref="E127:F127" si="22">E125/$D$123</f>
+        <v>3.0066518847006654</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="22"/>
+        <v>0.81152993348115299</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J127">
+        <f>J125/$J$123</f>
+        <v>0.88311688311688308</v>
+      </c>
+      <c r="K127">
+        <f t="shared" ref="K127:L127" si="23">K125/$J$123</f>
+        <v>4.2337662337662341</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="23"/>
+        <v>6.3896103896103895</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13">
+      <c r="C128" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="I128" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+    </row>
+    <row r="129" spans="3:13">
+      <c r="C129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13">
+      <c r="C130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>451</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J130">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13">
+      <c r="C131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3">
+        <v>8</v>
+      </c>
+      <c r="F131" s="3">
+        <v>64</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>1</v>
+      </c>
+      <c r="K131" s="3">
+        <v>8</v>
+      </c>
+      <c r="L131" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13">
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>367</v>
+      </c>
+      <c r="E132">
+        <v>1271</v>
+      </c>
+      <c r="F132">
+        <v>505</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132">
+        <v>69</v>
+      </c>
+      <c r="K132">
+        <v>552</v>
+      </c>
+      <c r="L132">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13">
+      <c r="C133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="3">
+        <v>8</v>
+      </c>
+      <c r="F133" s="3">
+        <v>64</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
+        <v>1</v>
+      </c>
+      <c r="K133" s="3">
+        <v>8</v>
+      </c>
+      <c r="L133" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13">
+      <c r="C134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134">
+        <f>D132/$D$130</f>
+        <v>0.8137472283813747</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ref="E134:F134" si="24">E132/$D$130</f>
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="24"/>
+        <v>1.1197339246119733</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J134">
+        <f>J132/$J$130</f>
+        <v>0.89610389610389607</v>
+      </c>
+      <c r="K134">
+        <f t="shared" ref="K134:L134" si="25">K132/$J$130</f>
+        <v>7.1688311688311686</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="25"/>
+        <v>6.4675324675324672</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13">
+      <c r="C135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="I135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+    </row>
+    <row r="136" spans="3:13">
+      <c r="C136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13">
+      <c r="C137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137">
+        <v>451</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J137">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="3:13">
+      <c r="C138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3">
+        <v>8</v>
+      </c>
+      <c r="F138" s="3">
+        <v>64</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>1</v>
+      </c>
+      <c r="K138" s="3">
+        <v>8</v>
+      </c>
+      <c r="L138" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="3:13">
+      <c r="C139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>361</v>
+      </c>
+      <c r="E139">
+        <v>1332</v>
+      </c>
+      <c r="F139">
+        <v>162</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139">
+        <v>66</v>
+      </c>
+      <c r="K139">
+        <v>551</v>
+      </c>
+      <c r="L139">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13">
+      <c r="C140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>8</v>
+      </c>
+      <c r="F140" s="3">
+        <v>64</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>1</v>
+      </c>
+      <c r="K140" s="3">
+        <v>8</v>
+      </c>
+      <c r="L140" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13">
+      <c r="C141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141">
+        <f>D139/$D$137</f>
+        <v>0.80044345898004432</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ref="E141:F141" si="26">E139/$D$137</f>
+        <v>2.9534368070953438</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="26"/>
+        <v>0.35920177383592017</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J141">
+        <f>J139/$J$137</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141:L141" si="27">K139/$J$137</f>
+        <v>7.1558441558441555</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="27"/>
+        <v>2.4025974025974026</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="I121:M121"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="I128:M128"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="I80:M80"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="I87:M87"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H2:R3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:F21"/>
   <sheetViews>
